--- a/biology/Médecine/Albert_Rakoto_Ratsimamanga/Albert_Rakoto_Ratsimamanga.xlsx
+++ b/biology/Médecine/Albert_Rakoto_Ratsimamanga/Albert_Rakoto_Ratsimamanga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,19 +490,21 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Rakoto Ratsimamanga, né le 28 décembre 1907 à Tananarive et mort le 16 septembre 2001, est un scientifique malgache, Andriana Il est le petit-fis du Prince Ratsimamanga (exécuté en 1897) qui est un conseiller et oncle utérin de la Reine Ranavalona III[1].
-Il a fondé en 1934, l'association des étudiants d'origine malgaches, il est aussi cofondateur du Mouvement démocratique de la rénovation malgache en 1947 (un mouvement de lutte contre l'ordre colonial)[1] 
-Il est le fondateur avec sa femme Suzanne, Pierre Boiteau et Raymond William Rabemananjara entre autres, de l'Institut malgache de recherches appliquées (IMRA) renommé « Fondation Albert et Suzanne Rakoto Ratsimamanga » et reconnue d'utilité publique par le Conseil de gouvernement le 2 octobre 2012[2]. La création de l'institut fut rendue possible grâce aux retombées financières d'un médicament cicatrisant, le Madécassol, qu'ils tirèrent de la plante Centella asiatica. Il est également un des cinq premiers scouts malgaches.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Rakoto Ratsimamanga, né le 28 décembre 1907 à Tananarive et mort le 16 septembre 2001, est un scientifique malgache, Andriana Il est le petit-fis du Prince Ratsimamanga (exécuté en 1897) qui est un conseiller et oncle utérin de la Reine Ranavalona III.
+Il a fondé en 1934, l'association des étudiants d'origine malgaches, il est aussi cofondateur du Mouvement démocratique de la rénovation malgache en 1947 (un mouvement de lutte contre l'ordre colonial) 
+Il est le fondateur avec sa femme Suzanne, Pierre Boiteau et Raymond William Rabemananjara entre autres, de l'Institut malgache de recherches appliquées (IMRA) renommé « Fondation Albert et Suzanne Rakoto Ratsimamanga » et reconnue d'utilité publique par le Conseil de gouvernement le 2 octobre 2012. La création de l'institut fut rendue possible grâce aux retombées financières d'un médicament cicatrisant, le Madécassol, qu'ils tirèrent de la plante Centella asiatica. Il est également un des cinq premiers scouts malgaches.
 L'IMRA  à des départements de recherche à savoir :
 -le laboratoire de biotechnologie végétale 
 -le laboratoire de phytochimie et contrôle qualité 
 -le laboratoire de pharmacognosie appliquée 
 -le laboratoire d'évaluation pharmaco-clinique 
 -le laboratoire pharmacologie experimentale
--le laboratoire agronomie de développement durable[3]
-L'IMRA a été très connu à Madagascar pendant la période de la crise sanitaire liée au COVID 19 car il a pu produire un remède traditionnel amélioré pour prévenir et guérir le coronavirus. Il s'agit en fait du covid_organics (CVO) ou tambavy CVO, lancé le 20 avril 2020 au siège de L'IMRA, composé d'Artemesia et d'autres plantes endémiques à Madagascar[4].
+-le laboratoire agronomie de développement durable
+L'IMRA a été très connu à Madagascar pendant la période de la crise sanitaire liée au COVID 19 car il a pu produire un remède traditionnel amélioré pour prévenir et guérir le coronavirus. Il s'agit en fait du covid_organics (CVO) ou tambavy CVO, lancé le 20 avril 2020 au siège de L'IMRA, composé d'Artemesia et d'autres plantes endémiques à Madagascar.
 </t>
         </is>
       </c>
@@ -521,7 +533,9 @@
           <t>Cursus universitaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Docteur en sciences (Paris)
 Docteur en médecine (Paris)
@@ -529,7 +543,7 @@
 Ancien élève de l'Institut Pasteur de Paris
 Ancien élève de l'École des hautes études internationales
 Correspondant de l'académie de médecine (France)
-correspondant de l'académie des sciences (institut de France) , l'académie des Sciences d'Outre-mer, l'académie malgache, l'académie des sciences du Tiers-Monde(Énergie atomique), académie des sciences de Rome, académie du monde latin, Américan Society of pharmacology, de l'association des Écrivains d'expression française d'Outre-mer[5].</t>
+correspondant de l'académie des sciences (institut de France) , l'académie des Sciences d'Outre-mer, l'académie malgache, l'académie des sciences du Tiers-Monde(Énergie atomique), académie des sciences de Rome, académie du monde latin, Américan Society of pharmacology, de l'association des Écrivains d'expression française d'Outre-mer.</t>
         </is>
       </c>
     </row>
@@ -557,11 +571,13 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ambassadeur de Madagascar en France entre 1960 et 1972
 Président de l'alliance Française à Madagascar (1960-1982)
-Maître de recherche au Centre National de la recherche scientifique (1940—1957)[5]</t>
+Maître de recherche au Centre National de la recherche scientifique (1940—1957)</t>
         </is>
       </c>
     </row>
@@ -589,9 +605,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Docteur honoris causa de l'université Cheikh-Anta-Diop (1973)[6]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Docteur honoris causa de l'université Cheikh-Anta-Diop (1973)</t>
         </is>
       </c>
     </row>
@@ -619,7 +637,9 @@
           <t>Principaux ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tache pigmentaire héréditaire et origine des malgaches, Thèse de Doctorat en Médecine, extrait paru dans : "Revue anthropologique", (50e année, janvier-mars 1940) No 1-3.
 Acide ascorbique et travail musculaire, Chatenay, 140 pages, Éditions Paris
